--- a/MotorApp/Uploads/TravelBulkUpload.xlsx
+++ b/MotorApp/Uploads/TravelBulkUpload.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guru\Downloads\reneedsampledataforbulkupload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guru\Documents\Visual Studio 2019\Projects\MotorApp\MotorApp\Uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040CCE36-ECE8-4C57-9677-89A45B2CB224}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD44783-DB4C-43C0-AEE2-05E6F96795BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{574E7FAF-7AD2-4723-9062-14FFF605EC7B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>IssueDate</t>
   </si>
@@ -151,64 +151,13 @@
   </si>
   <si>
     <t>ExtensionFamilyMember</t>
-  </si>
-  <si>
-    <t>P/004/01/3101/20/00001</t>
-  </si>
-  <si>
-    <t>New Policy/Renewal</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Head Office</t>
-  </si>
-  <si>
-    <t>Sultanate of Oman</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Mohammed</t>
-  </si>
-  <si>
-    <t>Omani</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Tourist</t>
-  </si>
-  <si>
-    <t>Mohanmmed</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Asfaq</t>
-  </si>
-  <si>
-    <t>Omani National</t>
-  </si>
-  <si>
-    <t>Spouse</t>
-  </si>
-  <si>
-    <t>F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,42 +165,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF030303"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -259,42 +182,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -609,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E80C24E4-41BA-4765-A606-0B94FB5D5E9B}">
-  <dimension ref="A14:AN15"/>
+  <dimension ref="A1:AN1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -657,248 +550,126 @@
     <col min="40" max="40" width="23.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R14" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S14" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T14" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U14" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="V14" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="W14" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="X14" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AC1" t="s">
         <v>28</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AD1" t="s">
         <v>29</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AE1" t="s">
         <v>30</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AF1" t="s">
         <v>31</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AG1" t="s">
         <v>32</v>
       </c>
-      <c r="AH14" t="s">
+      <c r="AH1" t="s">
         <v>33</v>
       </c>
-      <c r="AI14" t="s">
+      <c r="AI1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ14" t="s">
+      <c r="AJ1" t="s">
         <v>35</v>
       </c>
-      <c r="AK14" t="s">
+      <c r="AK1" t="s">
         <v>36</v>
       </c>
-      <c r="AL14" t="s">
+      <c r="AL1" t="s">
         <v>37</v>
       </c>
-      <c r="AM14" t="s">
+      <c r="AM1" t="s">
         <v>38</v>
       </c>
-      <c r="AN14" t="s">
+      <c r="AN1" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>44019.581944444442</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="3">
-        <v>5</v>
-      </c>
-      <c r="F15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="2">
-        <v>44019.581944444442</v>
-      </c>
-      <c r="H15" s="2">
-        <v>44354.999305555553</v>
-      </c>
-      <c r="I15" s="4">
-        <v>23565</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N15" s="2">
-        <v>44019.581944444442</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>2016</v>
-      </c>
-      <c r="R15" s="3">
-        <v>95464445</v>
-      </c>
-      <c r="S15" s="3">
-        <v>6522</v>
-      </c>
-      <c r="T15" s="3">
-        <v>352421</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="V15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="X15" s="3">
-        <v>652452</v>
-      </c>
-      <c r="Y15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>8545421</v>
-      </c>
-      <c r="AA15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC15" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG15" s="3">
-        <v>23112</v>
-      </c>
-      <c r="AH15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI15" s="4">
-        <v>23930</v>
-      </c>
-      <c r="AJ15" s="3">
-        <v>55</v>
-      </c>
-      <c r="AK15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM15" s="3">
-        <v>12422</v>
-      </c>
-      <c r="AN15" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/MotorApp/Uploads/TravelBulkUpload.xlsx
+++ b/MotorApp/Uploads/TravelBulkUpload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guru\Documents\Visual Studio 2019\Projects\MotorApp\MotorApp\Uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\fdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD44783-DB4C-43C0-AEE2-05E6F96795BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B68D04-6567-4A37-8AC7-198331A9132C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{574E7FAF-7AD2-4723-9062-14FFF605EC7B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{574E7FAF-7AD2-4723-9062-14FFF605EC7B}"/>
   </bookViews>
   <sheets>
     <sheet name="TravelBulkUpload" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="121">
   <si>
     <t>IssueDate</t>
   </si>
@@ -151,13 +151,256 @@
   </si>
   <si>
     <t>ExtensionFamilyMember</t>
+  </si>
+  <si>
+    <t>New Policy/Renewal</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Head Office</t>
+  </si>
+  <si>
+    <t>Sultanate of Oman</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Mohammed</t>
+  </si>
+  <si>
+    <t>Omani</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Tourist</t>
+  </si>
+  <si>
+    <t>Mohanmmed</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Asfaq</t>
+  </si>
+  <si>
+    <t>Omani National</t>
+  </si>
+  <si>
+    <t>Spouse</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>BA0007 - C.E. HEATH &amp; PARTNERS L.L.C.</t>
+  </si>
+  <si>
+    <t>SH005 - Mr.Ghaith AL-Maghribi</t>
+  </si>
+  <si>
+    <t>SH006 - Ms.Tahani Abdullah Al Najadi</t>
+  </si>
+  <si>
+    <t>SH007 - Ms.Ahad Ali Al Wahaibi</t>
+  </si>
+  <si>
+    <t>SH008 - Ms.Israa Zayid Khalifa Al Kindi</t>
+  </si>
+  <si>
+    <t>BA0025 - Klaah Al Malada Trad. &amp; Cont</t>
+  </si>
+  <si>
+    <t>BA0026 - Safety City Trading LLC</t>
+  </si>
+  <si>
+    <t>BA0057 - M/S TOWEL AUTO CENTRE L.L.C</t>
+  </si>
+  <si>
+    <t>BA0058 - M/S CRESENT GLOBAL</t>
+  </si>
+  <si>
+    <t>BA0059 - UNITED FINANCE COMPANY</t>
+  </si>
+  <si>
+    <t>BA0060 - ORYX INSURANCE SERVICES LLC</t>
+  </si>
+  <si>
+    <t>BA0061 - FIRST POLICY INSURANCE SERVICES</t>
+  </si>
+  <si>
+    <t>BA0062 - High Capacity Trading LLC</t>
+  </si>
+  <si>
+    <t>BA0063 - PWS GULF LLC</t>
+  </si>
+  <si>
+    <t>BA0123 - WABAS AL ALMIYAH</t>
+  </si>
+  <si>
+    <t>BA9988 - NIZWA WINDOW TRAD &amp; CONT LLC</t>
+  </si>
+  <si>
+    <t>BA9989 - HOWDEN INSURANCE BROKERS LLC</t>
+  </si>
+  <si>
+    <t>BA9990 - AL HAYAH INSURANCE SERVICES LLC</t>
+  </si>
+  <si>
+    <t>CSH001 - Cash Customers-HO</t>
+  </si>
+  <si>
+    <t>CSH002 - Cash Customers-Salalah</t>
+  </si>
+  <si>
+    <t>CSH003 - Cash Customers-Sohar</t>
+  </si>
+  <si>
+    <t>CSH004 - Cash Customers-Nizwa</t>
+  </si>
+  <si>
+    <t>CSH005 - Cash Customers-Seeb</t>
+  </si>
+  <si>
+    <t>CSH006 - Cash Customers-SQU</t>
+  </si>
+  <si>
+    <t>ME0001 - Naveed Shafi</t>
+  </si>
+  <si>
+    <t>ME0002 - Abdul Khaliq Abdul Rahman</t>
+  </si>
+  <si>
+    <t>ME0003 - Ranganathan Chakrapani</t>
+  </si>
+  <si>
+    <t>ME0004 - Fayaz Ahmed</t>
+  </si>
+  <si>
+    <t>SH001 - Ms.Kothar AL-Zadjali</t>
+  </si>
+  <si>
+    <t>Asraful</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2405/00001</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2405/00002</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2405/00003</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2405/00004</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2405/00005</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2405/00006</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2405/00007</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2405/00008</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2405/00009</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2405/00010</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2405/00011</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2405/00012</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2405/00013</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2405/00014</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2405/00015</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2405/00016</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2405/00017</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2405/00018</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2405/00019</t>
+  </si>
+  <si>
+    <t>P/004/02/20/2405/00020</t>
+  </si>
+  <si>
+    <t>P/004/03/20/2405/00021</t>
+  </si>
+  <si>
+    <t>P/004/04/20/2405/00022</t>
+  </si>
+  <si>
+    <t>P/004/05/20/2405/00023</t>
+  </si>
+  <si>
+    <t>P/004/06/20/2405/00024</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2405/00025</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2405/00026</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2405/00027</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2405/00028</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2405/00029</t>
+  </si>
+  <si>
+    <t>Salalah</t>
+  </si>
+  <si>
+    <t>Sohar</t>
+  </si>
+  <si>
+    <t>nizwa</t>
+  </si>
+  <si>
+    <t>Seeb</t>
+  </si>
+  <si>
+    <t>SQU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,19 +408,79 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF030303"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -186,8 +489,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,55 +833,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E80C24E4-41BA-4765-A606-0B94FB5D5E9B}">
-  <dimension ref="A1:AN1"/>
+  <dimension ref="A1:AN30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="17" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="47.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="25" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -670,6 +1001,3544 @@
       </c>
       <c r="AN1" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>44019.581250000003</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="3">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="2">
+        <v>44019.581944444442</v>
+      </c>
+      <c r="H2" s="6">
+        <v>44050.999305555553</v>
+      </c>
+      <c r="I2" s="4">
+        <v>23565</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="2">
+        <v>44019.581944444442</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>2016</v>
+      </c>
+      <c r="R2" s="3">
+        <v>95464445</v>
+      </c>
+      <c r="S2" s="3">
+        <v>6522</v>
+      </c>
+      <c r="T2" s="3">
+        <v>352421</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X2" s="3">
+        <v>652452</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>8545421</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG2" s="3">
+        <v>23112</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI2" s="4">
+        <v>23930</v>
+      </c>
+      <c r="AJ2" s="3">
+        <v>55</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM2" s="3">
+        <v>12422</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>44050.581250000003</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="7">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="2">
+        <v>44019.581944444442</v>
+      </c>
+      <c r="H3" s="6">
+        <v>44051.999305555553</v>
+      </c>
+      <c r="I3" s="4">
+        <v>23565</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="N3" s="2">
+        <v>44019.581944444442</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>2016</v>
+      </c>
+      <c r="R3" s="3">
+        <v>95464445</v>
+      </c>
+      <c r="S3" s="3">
+        <v>6522</v>
+      </c>
+      <c r="T3" s="3">
+        <v>352421</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X3" s="3">
+        <v>652452</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>8545421</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>23112</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI3" s="4">
+        <v>23930</v>
+      </c>
+      <c r="AJ3" s="3">
+        <v>55</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM3" s="3">
+        <v>12422</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>44081.581250000003</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="3">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="H4" s="6">
+        <v>44052.999305497688</v>
+      </c>
+      <c r="I4" s="4">
+        <v>23565</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="N4" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>2016</v>
+      </c>
+      <c r="R4" s="3">
+        <v>95464445</v>
+      </c>
+      <c r="S4" s="3">
+        <v>6522</v>
+      </c>
+      <c r="T4" s="3">
+        <v>352421</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X4" s="3">
+        <v>652452</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>8545421</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>23112</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI4" s="4">
+        <v>23930</v>
+      </c>
+      <c r="AJ4" s="3">
+        <v>55</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM4" s="3">
+        <v>12422</v>
+      </c>
+      <c r="AN4" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>44111.581250000003</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="7">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="H5" s="6">
+        <v>44053.999305497688</v>
+      </c>
+      <c r="I5" s="4">
+        <v>23565</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>2016</v>
+      </c>
+      <c r="R5" s="3">
+        <v>95464445</v>
+      </c>
+      <c r="S5" s="3">
+        <v>6522</v>
+      </c>
+      <c r="T5" s="3">
+        <v>352421</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X5" s="3">
+        <v>652452</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>8545421</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>23112</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI5" s="4">
+        <v>23930</v>
+      </c>
+      <c r="AJ5" s="3">
+        <v>55</v>
+      </c>
+      <c r="AK5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM5" s="3">
+        <v>12422</v>
+      </c>
+      <c r="AN5" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>44142.581250000003</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="3">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="H6" s="6">
+        <v>44054.999305497688</v>
+      </c>
+      <c r="I6" s="4">
+        <v>23565</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>2016</v>
+      </c>
+      <c r="R6" s="3">
+        <v>95464445</v>
+      </c>
+      <c r="S6" s="3">
+        <v>6522</v>
+      </c>
+      <c r="T6" s="3">
+        <v>352421</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X6" s="3">
+        <v>652452</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>8545421</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>23112</v>
+      </c>
+      <c r="AH6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI6" s="4">
+        <v>23930</v>
+      </c>
+      <c r="AJ6" s="3">
+        <v>55</v>
+      </c>
+      <c r="AK6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM6" s="3">
+        <v>12422</v>
+      </c>
+      <c r="AN6" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>44142.581250000003</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="7">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="H7" s="6">
+        <v>44055.999305497688</v>
+      </c>
+      <c r="I7" s="4">
+        <v>23565</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="N7" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>2016</v>
+      </c>
+      <c r="R7" s="3">
+        <v>95464445</v>
+      </c>
+      <c r="S7" s="3">
+        <v>6522</v>
+      </c>
+      <c r="T7" s="3">
+        <v>352421</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X7" s="3">
+        <v>652452</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>8545421</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG7" s="3">
+        <v>23112</v>
+      </c>
+      <c r="AH7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI7" s="4">
+        <v>23930</v>
+      </c>
+      <c r="AJ7" s="3">
+        <v>55</v>
+      </c>
+      <c r="AK7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM7" s="3">
+        <v>12422</v>
+      </c>
+      <c r="AN7" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>44142.581250000003</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="3">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="H8" s="6">
+        <v>43623.999305555553</v>
+      </c>
+      <c r="I8" s="4">
+        <v>23565</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="N8" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>2016</v>
+      </c>
+      <c r="R8" s="3">
+        <v>95464445</v>
+      </c>
+      <c r="S8" s="3">
+        <v>6522</v>
+      </c>
+      <c r="T8" s="3">
+        <v>352421</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X8" s="3">
+        <v>652452</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>8545421</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>23112</v>
+      </c>
+      <c r="AH8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI8" s="4">
+        <v>23930</v>
+      </c>
+      <c r="AJ8" s="3">
+        <v>55</v>
+      </c>
+      <c r="AK8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM8" s="3">
+        <v>12422</v>
+      </c>
+      <c r="AN8" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>44142.581250000003</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="7">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="H9" s="6">
+        <v>43623.999305555553</v>
+      </c>
+      <c r="I9" s="4">
+        <v>23565</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="N9" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>2016</v>
+      </c>
+      <c r="R9" s="3">
+        <v>95464445</v>
+      </c>
+      <c r="S9" s="3">
+        <v>6522</v>
+      </c>
+      <c r="T9" s="3">
+        <v>352421</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X9" s="3">
+        <v>652452</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>8545421</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>23112</v>
+      </c>
+      <c r="AH9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI9" s="4">
+        <v>23930</v>
+      </c>
+      <c r="AJ9" s="3">
+        <v>55</v>
+      </c>
+      <c r="AK9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM9" s="3">
+        <v>12422</v>
+      </c>
+      <c r="AN9" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>44142.581250000003</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="3">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="H10" s="6">
+        <v>43623.999305497688</v>
+      </c>
+      <c r="I10" s="4">
+        <v>23565</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>2016</v>
+      </c>
+      <c r="R10" s="3">
+        <v>95464445</v>
+      </c>
+      <c r="S10" s="3">
+        <v>6522</v>
+      </c>
+      <c r="T10" s="3">
+        <v>352421</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X10" s="3">
+        <v>652452</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>8545421</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG10" s="3">
+        <v>23112</v>
+      </c>
+      <c r="AH10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI10" s="4">
+        <v>23930</v>
+      </c>
+      <c r="AJ10" s="3">
+        <v>55</v>
+      </c>
+      <c r="AK10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM10" s="3">
+        <v>12422</v>
+      </c>
+      <c r="AN10" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>44142.581250000003</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="7">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="H11" s="6">
+        <v>43623.999305497688</v>
+      </c>
+      <c r="I11" s="4">
+        <v>23565</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="N11" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>2016</v>
+      </c>
+      <c r="R11" s="3">
+        <v>95464445</v>
+      </c>
+      <c r="S11" s="3">
+        <v>6522</v>
+      </c>
+      <c r="T11" s="3">
+        <v>352421</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X11" s="3">
+        <v>652452</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>8545421</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG11" s="3">
+        <v>23112</v>
+      </c>
+      <c r="AH11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI11" s="4">
+        <v>23930</v>
+      </c>
+      <c r="AJ11" s="3">
+        <v>55</v>
+      </c>
+      <c r="AK11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM11" s="3">
+        <v>12422</v>
+      </c>
+      <c r="AN11" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>44142.581250000003</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="3">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="H12" s="6">
+        <v>43623.999305497688</v>
+      </c>
+      <c r="I12" s="4">
+        <v>23565</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N12" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>2016</v>
+      </c>
+      <c r="R12" s="3">
+        <v>95464445</v>
+      </c>
+      <c r="S12" s="3">
+        <v>6522</v>
+      </c>
+      <c r="T12" s="3">
+        <v>352421</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X12" s="3">
+        <v>652452</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>8545421</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG12" s="3">
+        <v>23112</v>
+      </c>
+      <c r="AH12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI12" s="4">
+        <v>23930</v>
+      </c>
+      <c r="AJ12" s="3">
+        <v>55</v>
+      </c>
+      <c r="AK12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM12" s="3">
+        <v>12422</v>
+      </c>
+      <c r="AN12" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>44142.581250000003</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="7">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="H13" s="6">
+        <v>43623.999305497688</v>
+      </c>
+      <c r="I13" s="4">
+        <v>23565</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="N13" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P13" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>2016</v>
+      </c>
+      <c r="R13" s="3">
+        <v>95464445</v>
+      </c>
+      <c r="S13" s="3">
+        <v>6522</v>
+      </c>
+      <c r="T13" s="3">
+        <v>352421</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X13" s="3">
+        <v>652452</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>8545421</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>23112</v>
+      </c>
+      <c r="AH13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI13" s="4">
+        <v>23930</v>
+      </c>
+      <c r="AJ13" s="3">
+        <v>55</v>
+      </c>
+      <c r="AK13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM13" s="3">
+        <v>12422</v>
+      </c>
+      <c r="AN13" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>44142.581250000003</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="3">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="H14" s="6">
+        <v>44081.999305555553</v>
+      </c>
+      <c r="I14" s="4">
+        <v>23565</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="N14" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>2016</v>
+      </c>
+      <c r="R14" s="3">
+        <v>95464445</v>
+      </c>
+      <c r="S14" s="3">
+        <v>6522</v>
+      </c>
+      <c r="T14" s="3">
+        <v>352421</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X14" s="3">
+        <v>652452</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>8545421</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG14" s="3">
+        <v>23112</v>
+      </c>
+      <c r="AH14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI14" s="4">
+        <v>23930</v>
+      </c>
+      <c r="AJ14" s="3">
+        <v>55</v>
+      </c>
+      <c r="AK14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM14" s="3">
+        <v>12422</v>
+      </c>
+      <c r="AN14" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>44142.581250000003</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="7">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="H15" s="6">
+        <v>44083.999305555553</v>
+      </c>
+      <c r="I15" s="4">
+        <v>23565</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="N15" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>2016</v>
+      </c>
+      <c r="R15" s="3">
+        <v>95464445</v>
+      </c>
+      <c r="S15" s="3">
+        <v>6522</v>
+      </c>
+      <c r="T15" s="3">
+        <v>352421</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X15" s="3">
+        <v>652452</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>8545421</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG15" s="3">
+        <v>23112</v>
+      </c>
+      <c r="AH15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI15" s="4">
+        <v>23930</v>
+      </c>
+      <c r="AJ15" s="3">
+        <v>55</v>
+      </c>
+      <c r="AK15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM15" s="3">
+        <v>12422</v>
+      </c>
+      <c r="AN15" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>44142.581250000003</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="3">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="H16" s="6">
+        <v>44085.999305497688</v>
+      </c>
+      <c r="I16" s="4">
+        <v>23565</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="N16" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>2016</v>
+      </c>
+      <c r="R16" s="3">
+        <v>95464445</v>
+      </c>
+      <c r="S16" s="3">
+        <v>6522</v>
+      </c>
+      <c r="T16" s="3">
+        <v>352421</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X16" s="3">
+        <v>652452</v>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>8545421</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG16" s="3">
+        <v>23112</v>
+      </c>
+      <c r="AH16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI16" s="4">
+        <v>23930</v>
+      </c>
+      <c r="AJ16" s="3">
+        <v>55</v>
+      </c>
+      <c r="AK16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM16" s="3">
+        <v>12422</v>
+      </c>
+      <c r="AN16" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>44142.581250000003</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="7">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="H17" s="6">
+        <v>44087.999305497688</v>
+      </c>
+      <c r="I17" s="4">
+        <v>23565</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="N17" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P17" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>2016</v>
+      </c>
+      <c r="R17" s="3">
+        <v>95464445</v>
+      </c>
+      <c r="S17" s="3">
+        <v>6522</v>
+      </c>
+      <c r="T17" s="3">
+        <v>352421</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X17" s="3">
+        <v>652452</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>8545421</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG17" s="3">
+        <v>23112</v>
+      </c>
+      <c r="AH17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI17" s="4">
+        <v>23930</v>
+      </c>
+      <c r="AJ17" s="3">
+        <v>55</v>
+      </c>
+      <c r="AK17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM17" s="3">
+        <v>12422</v>
+      </c>
+      <c r="AN17" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>44142.581250000003</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="3">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="H18" s="6">
+        <v>44089.999305497688</v>
+      </c>
+      <c r="I18" s="4">
+        <v>23565</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="N18" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>2016</v>
+      </c>
+      <c r="R18" s="3">
+        <v>95464445</v>
+      </c>
+      <c r="S18" s="3">
+        <v>6522</v>
+      </c>
+      <c r="T18" s="3">
+        <v>352421</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X18" s="3">
+        <v>652452</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>8545421</v>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG18" s="3">
+        <v>23112</v>
+      </c>
+      <c r="AH18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI18" s="4">
+        <v>23930</v>
+      </c>
+      <c r="AJ18" s="3">
+        <v>55</v>
+      </c>
+      <c r="AK18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM18" s="3">
+        <v>12422</v>
+      </c>
+      <c r="AN18" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>44142.581250000003</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="7">
+        <v>22</v>
+      </c>
+      <c r="F19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="H19" s="6">
+        <v>44091.999305497688</v>
+      </c>
+      <c r="I19" s="4">
+        <v>23565</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N19" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>2016</v>
+      </c>
+      <c r="R19" s="3">
+        <v>95464445</v>
+      </c>
+      <c r="S19" s="3">
+        <v>6522</v>
+      </c>
+      <c r="T19" s="3">
+        <v>352421</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X19" s="3">
+        <v>652452</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>8545421</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG19" s="3">
+        <v>23112</v>
+      </c>
+      <c r="AH19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI19" s="4">
+        <v>23930</v>
+      </c>
+      <c r="AJ19" s="3">
+        <v>55</v>
+      </c>
+      <c r="AK19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM19" s="3">
+        <v>12422</v>
+      </c>
+      <c r="AN19" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>44142.581250000003</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="3">
+        <v>23</v>
+      </c>
+      <c r="F20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="H20" s="6">
+        <v>44093.999305497688</v>
+      </c>
+      <c r="I20" s="4">
+        <v>23565</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="N20" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>2016</v>
+      </c>
+      <c r="R20" s="3">
+        <v>95464445</v>
+      </c>
+      <c r="S20" s="3">
+        <v>6522</v>
+      </c>
+      <c r="T20" s="3">
+        <v>352421</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X20" s="3">
+        <v>652452</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>8545421</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG20" s="3">
+        <v>23112</v>
+      </c>
+      <c r="AH20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI20" s="4">
+        <v>23930</v>
+      </c>
+      <c r="AJ20" s="3">
+        <v>55</v>
+      </c>
+      <c r="AK20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM20" s="3">
+        <v>12422</v>
+      </c>
+      <c r="AN20" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>44142.581250000003</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="7">
+        <v>24</v>
+      </c>
+      <c r="F21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="H21" s="6">
+        <v>44354.999305497688</v>
+      </c>
+      <c r="I21" s="4">
+        <v>23565</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="N21" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="P21" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>2016</v>
+      </c>
+      <c r="R21" s="3">
+        <v>95464445</v>
+      </c>
+      <c r="S21" s="3">
+        <v>6522</v>
+      </c>
+      <c r="T21" s="3">
+        <v>352421</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X21" s="3">
+        <v>652452</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>8545421</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG21" s="3">
+        <v>23112</v>
+      </c>
+      <c r="AH21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI21" s="4">
+        <v>23930</v>
+      </c>
+      <c r="AJ21" s="3">
+        <v>55</v>
+      </c>
+      <c r="AK21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM21" s="3">
+        <v>12422</v>
+      </c>
+      <c r="AN21" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>44142.581250000003</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="3">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="H22" s="6">
+        <v>44354.999305497688</v>
+      </c>
+      <c r="I22" s="4">
+        <v>23565</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="N22" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>2016</v>
+      </c>
+      <c r="R22" s="3">
+        <v>95464445</v>
+      </c>
+      <c r="S22" s="3">
+        <v>6522</v>
+      </c>
+      <c r="T22" s="3">
+        <v>352421</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X22" s="3">
+        <v>652452</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>8545421</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG22" s="3">
+        <v>23112</v>
+      </c>
+      <c r="AH22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI22" s="4">
+        <v>23930</v>
+      </c>
+      <c r="AJ22" s="3">
+        <v>55</v>
+      </c>
+      <c r="AK22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM22" s="3">
+        <v>12422</v>
+      </c>
+      <c r="AN22" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>44142.581250000003</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="7">
+        <v>26</v>
+      </c>
+      <c r="F23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="H23" s="6">
+        <v>44354.999305497688</v>
+      </c>
+      <c r="I23" s="4">
+        <v>23565</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="N23" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>2016</v>
+      </c>
+      <c r="R23" s="3">
+        <v>95464445</v>
+      </c>
+      <c r="S23" s="3">
+        <v>6522</v>
+      </c>
+      <c r="T23" s="3">
+        <v>352421</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X23" s="3">
+        <v>652452</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>8545421</v>
+      </c>
+      <c r="AA23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG23" s="3">
+        <v>23112</v>
+      </c>
+      <c r="AH23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI23" s="4">
+        <v>23930</v>
+      </c>
+      <c r="AJ23" s="3">
+        <v>55</v>
+      </c>
+      <c r="AK23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM23" s="3">
+        <v>12422</v>
+      </c>
+      <c r="AN23" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>44142.581250000003</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="3">
+        <v>27</v>
+      </c>
+      <c r="F24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="H24" s="6">
+        <v>44354.999305497688</v>
+      </c>
+      <c r="I24" s="4">
+        <v>23565</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="N24" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="O24" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>2016</v>
+      </c>
+      <c r="R24" s="3">
+        <v>95464445</v>
+      </c>
+      <c r="S24" s="3">
+        <v>6522</v>
+      </c>
+      <c r="T24" s="3">
+        <v>352421</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X24" s="3">
+        <v>652452</v>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>8545421</v>
+      </c>
+      <c r="AA24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG24" s="3">
+        <v>23112</v>
+      </c>
+      <c r="AH24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI24" s="4">
+        <v>23930</v>
+      </c>
+      <c r="AJ24" s="3">
+        <v>55</v>
+      </c>
+      <c r="AK24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM24" s="3">
+        <v>12422</v>
+      </c>
+      <c r="AN24" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>44142.581250000003</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="7">
+        <v>28</v>
+      </c>
+      <c r="F25" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="H25" s="6">
+        <v>44354.999305497688</v>
+      </c>
+      <c r="I25" s="4">
+        <v>23565</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="N25" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P25" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>2016</v>
+      </c>
+      <c r="R25" s="3">
+        <v>95464445</v>
+      </c>
+      <c r="S25" s="3">
+        <v>6522</v>
+      </c>
+      <c r="T25" s="3">
+        <v>352421</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="W25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X25" s="3">
+        <v>652452</v>
+      </c>
+      <c r="Y25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>8545421</v>
+      </c>
+      <c r="AA25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG25" s="3">
+        <v>23112</v>
+      </c>
+      <c r="AH25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI25" s="4">
+        <v>23930</v>
+      </c>
+      <c r="AJ25" s="3">
+        <v>55</v>
+      </c>
+      <c r="AK25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM25" s="3">
+        <v>12422</v>
+      </c>
+      <c r="AN25" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>44142.581250000003</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="3">
+        <v>29</v>
+      </c>
+      <c r="F26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="H26" s="6">
+        <v>44354.999305497688</v>
+      </c>
+      <c r="I26" s="4">
+        <v>23565</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="N26" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>2016</v>
+      </c>
+      <c r="R26" s="3">
+        <v>95464445</v>
+      </c>
+      <c r="S26" s="3">
+        <v>6522</v>
+      </c>
+      <c r="T26" s="3">
+        <v>352421</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X26" s="3">
+        <v>652452</v>
+      </c>
+      <c r="Y26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>8545421</v>
+      </c>
+      <c r="AA26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG26" s="3">
+        <v>23112</v>
+      </c>
+      <c r="AH26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI26" s="4">
+        <v>23930</v>
+      </c>
+      <c r="AJ26" s="3">
+        <v>55</v>
+      </c>
+      <c r="AK26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM26" s="3">
+        <v>12422</v>
+      </c>
+      <c r="AN26" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>44142.581250000003</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="7">
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="H27" s="6">
+        <v>44354.999305497688</v>
+      </c>
+      <c r="I27" s="4">
+        <v>23565</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="N27" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="O27" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="P27" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>2016</v>
+      </c>
+      <c r="R27" s="3">
+        <v>95464445</v>
+      </c>
+      <c r="S27" s="3">
+        <v>6522</v>
+      </c>
+      <c r="T27" s="3">
+        <v>352421</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="W27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X27" s="3">
+        <v>652452</v>
+      </c>
+      <c r="Y27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>8545421</v>
+      </c>
+      <c r="AA27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG27" s="3">
+        <v>23112</v>
+      </c>
+      <c r="AH27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI27" s="4">
+        <v>23930</v>
+      </c>
+      <c r="AJ27" s="3">
+        <v>55</v>
+      </c>
+      <c r="AK27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM27" s="3">
+        <v>12422</v>
+      </c>
+      <c r="AN27" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>44142.581250000003</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="3">
+        <v>31</v>
+      </c>
+      <c r="F28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="H28" s="6">
+        <v>44354.999305497688</v>
+      </c>
+      <c r="I28" s="4">
+        <v>23565</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N28" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>2016</v>
+      </c>
+      <c r="R28" s="3">
+        <v>95464445</v>
+      </c>
+      <c r="S28" s="3">
+        <v>6522</v>
+      </c>
+      <c r="T28" s="3">
+        <v>352421</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="W28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X28" s="3">
+        <v>652452</v>
+      </c>
+      <c r="Y28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>8545421</v>
+      </c>
+      <c r="AA28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG28" s="3">
+        <v>23112</v>
+      </c>
+      <c r="AH28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI28" s="4">
+        <v>23930</v>
+      </c>
+      <c r="AJ28" s="3">
+        <v>55</v>
+      </c>
+      <c r="AK28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM28" s="3">
+        <v>12422</v>
+      </c>
+      <c r="AN28" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>44142.581250000003</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="7">
+        <v>32</v>
+      </c>
+      <c r="F29" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="H29" s="6">
+        <v>44354.999305497688</v>
+      </c>
+      <c r="I29" s="4">
+        <v>23565</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="N29" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P29" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>2016</v>
+      </c>
+      <c r="R29" s="3">
+        <v>95464445</v>
+      </c>
+      <c r="S29" s="3">
+        <v>6522</v>
+      </c>
+      <c r="T29" s="3">
+        <v>352421</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V29" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X29" s="3">
+        <v>652452</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>8545421</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG29" s="3">
+        <v>23112</v>
+      </c>
+      <c r="AH29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI29" s="4">
+        <v>23930</v>
+      </c>
+      <c r="AJ29" s="3">
+        <v>55</v>
+      </c>
+      <c r="AK29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM29" s="3">
+        <v>12422</v>
+      </c>
+      <c r="AN29" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>44142.581250000003</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="3">
+        <v>33</v>
+      </c>
+      <c r="F30" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="H30" s="6">
+        <v>44354.999305497688</v>
+      </c>
+      <c r="I30" s="4">
+        <v>23565</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="N30" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="O30" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>2016</v>
+      </c>
+      <c r="R30" s="3">
+        <v>95464445</v>
+      </c>
+      <c r="S30" s="3">
+        <v>6522</v>
+      </c>
+      <c r="T30" s="3">
+        <v>352421</v>
+      </c>
+      <c r="U30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V30" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="W30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X30" s="3">
+        <v>652452</v>
+      </c>
+      <c r="Y30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>8545421</v>
+      </c>
+      <c r="AA30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE30" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG30" s="3">
+        <v>23112</v>
+      </c>
+      <c r="AH30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI30" s="4">
+        <v>23930</v>
+      </c>
+      <c r="AJ30" s="3">
+        <v>55</v>
+      </c>
+      <c r="AK30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL30" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM30" s="3">
+        <v>12422</v>
+      </c>
+      <c r="AN30" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/MotorApp/Uploads/TravelBulkUpload.xlsx
+++ b/MotorApp/Uploads/TravelBulkUpload.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\fdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeeva-PC\Desktop\MotorApplication-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B68D04-6567-4A37-8AC7-198331A9132C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CE2713-E006-46B2-8A24-98D628B209E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{574E7FAF-7AD2-4723-9062-14FFF605EC7B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{574E7FAF-7AD2-4723-9062-14FFF605EC7B}"/>
   </bookViews>
   <sheets>
     <sheet name="TravelBulkUpload" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TravelBulkUpload!$A$1:$AN$1</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -836,7 +839,7 @@
   <dimension ref="A1:AN30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H2" sqref="H2:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,7 +1029,7 @@
         <v>44019.581944444442</v>
       </c>
       <c r="H2" s="6">
-        <v>44050.999305555553</v>
+        <v>44081.999305555553</v>
       </c>
       <c r="I2" s="4">
         <v>23565</v>
@@ -1148,7 +1151,7 @@
         <v>44019.581944444442</v>
       </c>
       <c r="H3" s="6">
-        <v>44051.999305555553</v>
+        <v>44081.999305555553</v>
       </c>
       <c r="I3" s="4">
         <v>23565</v>
@@ -1270,7 +1273,7 @@
         <v>44019.581944386577</v>
       </c>
       <c r="H4" s="6">
-        <v>44052.999305497688</v>
+        <v>44081.999305555553</v>
       </c>
       <c r="I4" s="4">
         <v>23565</v>
@@ -1392,7 +1395,7 @@
         <v>44019.581944386577</v>
       </c>
       <c r="H5" s="6">
-        <v>44053.999305497688</v>
+        <v>44081.999305555553</v>
       </c>
       <c r="I5" s="4">
         <v>23565</v>
@@ -1514,7 +1517,7 @@
         <v>44019.581944386577</v>
       </c>
       <c r="H6" s="6">
-        <v>44054.999305497688</v>
+        <v>44081.999305555553</v>
       </c>
       <c r="I6" s="4">
         <v>23565</v>
@@ -1636,7 +1639,7 @@
         <v>44019.581944386577</v>
       </c>
       <c r="H7" s="6">
-        <v>44055.999305497688</v>
+        <v>44074</v>
       </c>
       <c r="I7" s="4">
         <v>23565</v>
@@ -1758,7 +1761,7 @@
         <v>44019.581944386577</v>
       </c>
       <c r="H8" s="6">
-        <v>43623.999305555553</v>
+        <v>44074</v>
       </c>
       <c r="I8" s="4">
         <v>23565</v>
@@ -1880,7 +1883,7 @@
         <v>44019.581944386577</v>
       </c>
       <c r="H9" s="6">
-        <v>43623.999305555553</v>
+        <v>44074</v>
       </c>
       <c r="I9" s="4">
         <v>23565</v>
@@ -2002,7 +2005,7 @@
         <v>44019.581944386577</v>
       </c>
       <c r="H10" s="6">
-        <v>43623.999305497688</v>
+        <v>44074</v>
       </c>
       <c r="I10" s="4">
         <v>23565</v>
@@ -2124,7 +2127,7 @@
         <v>44019.581944386577</v>
       </c>
       <c r="H11" s="6">
-        <v>43623.999305497688</v>
+        <v>44074</v>
       </c>
       <c r="I11" s="4">
         <v>23565</v>
@@ -2246,7 +2249,7 @@
         <v>44019.581944386577</v>
       </c>
       <c r="H12" s="6">
-        <v>43623.999305497688</v>
+        <v>43708</v>
       </c>
       <c r="I12" s="4">
         <v>23565</v>
@@ -2368,7 +2371,7 @@
         <v>44019.581944386577</v>
       </c>
       <c r="H13" s="6">
-        <v>43623.999305497688</v>
+        <v>43708</v>
       </c>
       <c r="I13" s="4">
         <v>23565</v>
@@ -2490,7 +2493,7 @@
         <v>44019.581944386577</v>
       </c>
       <c r="H14" s="6">
-        <v>44081.999305555553</v>
+        <v>43708</v>
       </c>
       <c r="I14" s="4">
         <v>23565</v>
@@ -2612,7 +2615,7 @@
         <v>44019.581944386577</v>
       </c>
       <c r="H15" s="6">
-        <v>44083.999305555553</v>
+        <v>43708</v>
       </c>
       <c r="I15" s="4">
         <v>23565</v>
@@ -2734,7 +2737,7 @@
         <v>44019.581944386577</v>
       </c>
       <c r="H16" s="6">
-        <v>44085.999305497688</v>
+        <v>43708</v>
       </c>
       <c r="I16" s="4">
         <v>23565</v>
@@ -2856,7 +2859,7 @@
         <v>44019.581944386577</v>
       </c>
       <c r="H17" s="6">
-        <v>44087.999305497688</v>
+        <v>43708</v>
       </c>
       <c r="I17" s="4">
         <v>23565</v>
@@ -2978,7 +2981,7 @@
         <v>44019.581944386577</v>
       </c>
       <c r="H18" s="6">
-        <v>44089.999305497688</v>
+        <v>43708</v>
       </c>
       <c r="I18" s="4">
         <v>23565</v>
@@ -3100,7 +3103,7 @@
         <v>44019.581944386577</v>
       </c>
       <c r="H19" s="6">
-        <v>44091.999305497688</v>
+        <v>43708</v>
       </c>
       <c r="I19" s="4">
         <v>23565</v>
@@ -3222,7 +3225,7 @@
         <v>44019.581944386577</v>
       </c>
       <c r="H20" s="6">
-        <v>44093.999305497688</v>
+        <v>43708</v>
       </c>
       <c r="I20" s="4">
         <v>23565</v>
@@ -3344,7 +3347,7 @@
         <v>44019.581944386577</v>
       </c>
       <c r="H21" s="6">
-        <v>44354.999305497688</v>
+        <v>43708</v>
       </c>
       <c r="I21" s="4">
         <v>23565</v>
@@ -3466,7 +3469,7 @@
         <v>44019.581944386577</v>
       </c>
       <c r="H22" s="6">
-        <v>44354.999305497688</v>
+        <v>44081.999305555553</v>
       </c>
       <c r="I22" s="4">
         <v>23565</v>
@@ -3588,7 +3591,7 @@
         <v>44019.581944386577</v>
       </c>
       <c r="H23" s="6">
-        <v>44354.999305497688</v>
+        <v>44081.999305555553</v>
       </c>
       <c r="I23" s="4">
         <v>23565</v>
@@ -3710,7 +3713,7 @@
         <v>44019.581944386577</v>
       </c>
       <c r="H24" s="6">
-        <v>44354.999305497688</v>
+        <v>44081.999305555553</v>
       </c>
       <c r="I24" s="4">
         <v>23565</v>
@@ -3832,7 +3835,7 @@
         <v>44019.581944386577</v>
       </c>
       <c r="H25" s="6">
-        <v>44354.999305497688</v>
+        <v>44081.999305555553</v>
       </c>
       <c r="I25" s="4">
         <v>23565</v>
@@ -3954,7 +3957,7 @@
         <v>44019.581944386577</v>
       </c>
       <c r="H26" s="6">
-        <v>44354.999305497688</v>
+        <v>44081.999305555553</v>
       </c>
       <c r="I26" s="4">
         <v>23565</v>
@@ -4076,7 +4079,7 @@
         <v>44019.581944386577</v>
       </c>
       <c r="H27" s="6">
-        <v>44354.999305497688</v>
+        <v>43708</v>
       </c>
       <c r="I27" s="4">
         <v>23565</v>
@@ -4198,7 +4201,7 @@
         <v>44019.581944386577</v>
       </c>
       <c r="H28" s="6">
-        <v>44354.999305497688</v>
+        <v>43708</v>
       </c>
       <c r="I28" s="4">
         <v>23565</v>
@@ -4320,7 +4323,7 @@
         <v>44019.581944386577</v>
       </c>
       <c r="H29" s="6">
-        <v>44354.999305497688</v>
+        <v>43708</v>
       </c>
       <c r="I29" s="4">
         <v>23565</v>
@@ -4442,7 +4445,7 @@
         <v>44019.581944386577</v>
       </c>
       <c r="H30" s="6">
-        <v>44354.999305497688</v>
+        <v>43708</v>
       </c>
       <c r="I30" s="4">
         <v>23565</v>
@@ -4542,6 +4545,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AN1" xr:uid="{230BC146-AC11-424E-90D2-0276E8F7ECFD}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
